--- a/docs/data-cleaning-requests/university_police_actions/university_police_actions_no_virtual.xlsx
+++ b/docs/data-cleaning-requests/university_police_actions/university_police_actions_no_virtual.xlsx
@@ -377,7 +377,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="3">
@@ -387,7 +387,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4">
@@ -407,7 +407,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>901</v>
+        <v>904</v>
       </c>
     </row>
     <row r="6">
@@ -417,7 +417,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="7">
@@ -427,7 +427,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>978</v>
+        <v>986</v>
       </c>
     </row>
     <row r="8">
@@ -437,7 +437,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>684</v>
+        <v>692</v>
       </c>
     </row>
     <row r="9">
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>806</v>
+        <v>816</v>
       </c>
     </row>
     <row r="10">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>1559</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="11">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
     <row r="12">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>2113</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="13">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>3252</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="14">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>5365</v>
+        <v>5407</v>
       </c>
     </row>
   </sheetData>
@@ -560,7 +560,7 @@
         <v>52</v>
       </c>
       <c r="E2">
-        <v>0.009692451071761416</v>
+        <v>0.009617162936933604</v>
       </c>
     </row>
     <row r="3">
@@ -583,7 +583,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>0.0003727865796831314</v>
+        <v>0.000369890882189754</v>
       </c>
     </row>
     <row r="4">
@@ -606,7 +606,7 @@
         <v>160</v>
       </c>
       <c r="E4">
-        <v>0.02982292637465051</v>
+        <v>0.02959127057518032</v>
       </c>
     </row>
     <row r="5">
@@ -629,7 +629,7 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>0.004473438956197577</v>
+        <v>0.004438690586277048</v>
       </c>
     </row>
     <row r="6">
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E6">
-        <v>0.03000931966449208</v>
+        <v>0.02996116145737008</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>14</v>
       </c>
       <c r="E7">
-        <v>0.00260950605778192</v>
+        <v>0.002589236175328278</v>
       </c>
     </row>
     <row r="8">
@@ -698,7 +698,7 @@
         <v>48</v>
       </c>
       <c r="E8">
-        <v>0.008946877912395153</v>
+        <v>0.008877381172554096</v>
       </c>
     </row>
     <row r="9">
@@ -721,7 +721,7 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <v>0.0009319664492078285</v>
+        <v>0.0009247272054743851</v>
       </c>
     </row>
     <row r="10">
@@ -744,7 +744,7 @@
         <v>57</v>
       </c>
       <c r="E10">
-        <v>0.01062441752096925</v>
+        <v>0.01054189014240799</v>
       </c>
     </row>
     <row r="11">
@@ -767,7 +767,7 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>0.005032618825722274</v>
+        <v>0.004993526909561679</v>
       </c>
     </row>
     <row r="12">
@@ -790,7 +790,7 @@
         <v>56</v>
       </c>
       <c r="E12">
-        <v>0.01043802423112768</v>
+        <v>0.01035694470131311</v>
       </c>
     </row>
     <row r="13">
@@ -813,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="E13">
-        <v>0.005405405405405406</v>
+        <v>0.005363417791751433</v>
       </c>
     </row>
     <row r="14">
@@ -836,7 +836,7 @@
         <v>103</v>
       </c>
       <c r="E14">
-        <v>0.01919850885368127</v>
+        <v>0.01904938043277233</v>
       </c>
     </row>
     <row r="15">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="D15">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E15">
-        <v>0.0331780055917987</v>
+        <v>0.03329017939707786</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>411</v>
       </c>
       <c r="E16">
-        <v>0.07660764212488351</v>
+        <v>0.07601257628999446</v>
       </c>
     </row>
     <row r="17">
@@ -905,7 +905,7 @@
         <v>6</v>
       </c>
       <c r="E17">
-        <v>0.001118359739049394</v>
+        <v>0.001109672646569262</v>
       </c>
     </row>
     <row r="18">
@@ -925,10 +925,10 @@
         </is>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E18">
-        <v>0.004100652376514445</v>
+        <v>0.004623636027371925</v>
       </c>
     </row>
     <row r="19">
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="D19">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E19">
-        <v>0.01192917054986021</v>
+        <v>0.01202145367116701</v>
       </c>
     </row>
     <row r="20">
@@ -974,7 +974,7 @@
         <v>32</v>
       </c>
       <c r="E20">
-        <v>0.005964585274930103</v>
+        <v>0.005918254115036064</v>
       </c>
     </row>
     <row r="21">
@@ -997,7 +997,7 @@
         <v>17</v>
       </c>
       <c r="E21">
-        <v>0.003168685927306617</v>
+        <v>0.003144072498612909</v>
       </c>
     </row>
     <row r="22">
@@ -1017,10 +1017,10 @@
         </is>
       </c>
       <c r="D22">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E22">
-        <v>0.01621621621621622</v>
+        <v>0.01646014425744406</v>
       </c>
     </row>
     <row r="23">
@@ -1043,7 +1043,7 @@
         <v>288</v>
       </c>
       <c r="E23">
-        <v>0.05368126747437092</v>
+        <v>0.05326428703532458</v>
       </c>
     </row>
     <row r="24">
@@ -1066,7 +1066,7 @@
         <v>53</v>
       </c>
       <c r="E24">
-        <v>0.009878844361602983</v>
+        <v>0.009802108378028482</v>
       </c>
     </row>
     <row r="25">
@@ -1089,7 +1089,7 @@
         <v>79</v>
       </c>
       <c r="E25">
-        <v>0.01472506989748369</v>
+        <v>0.01461068984649528</v>
       </c>
     </row>
     <row r="26">
@@ -1112,7 +1112,7 @@
         <v>68</v>
       </c>
       <c r="E26">
-        <v>0.01267474370922647</v>
+        <v>0.01257628999445164</v>
       </c>
     </row>
     <row r="27">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="D27">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E27">
-        <v>0.05591798695246971</v>
+        <v>0.05566857776955798</v>
       </c>
     </row>
     <row r="28">
@@ -1158,7 +1158,7 @@
         <v>132</v>
       </c>
       <c r="E28">
-        <v>0.02460391425908667</v>
+        <v>0.02441279822452377</v>
       </c>
     </row>
     <row r="29">
@@ -1178,10 +1178,10 @@
         </is>
       </c>
       <c r="D29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E29">
-        <v>0.005032618825722274</v>
+        <v>0.005178472350656557</v>
       </c>
     </row>
     <row r="30">
@@ -1201,10 +1201,10 @@
         </is>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>0.0003727865796831314</v>
+        <v>0.000554836323284631</v>
       </c>
     </row>
     <row r="31">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="D31">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="E31">
-        <v>0.08536812674743709</v>
+        <v>0.08525984834473831</v>
       </c>
     </row>
     <row r="32">
@@ -1250,7 +1250,7 @@
         <v>146</v>
       </c>
       <c r="E32">
-        <v>0.02721342031686859</v>
+        <v>0.02700203439985204</v>
       </c>
     </row>
     <row r="33">
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="D33">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E33">
-        <v>0.0712022367194781</v>
+        <v>0.07101904938043277</v>
       </c>
     </row>
     <row r="34">
@@ -1296,7 +1296,7 @@
         <v>23</v>
       </c>
       <c r="E34">
-        <v>0.004287045666356011</v>
+        <v>0.004253745145182172</v>
       </c>
     </row>
     <row r="35">
@@ -1316,10 +1316,10 @@
         </is>
       </c>
       <c r="D35">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E35">
-        <v>0.008387698042870456</v>
+        <v>0.007952653967079712</v>
       </c>
     </row>
     <row r="36">
@@ -1342,7 +1342,7 @@
         <v>26</v>
       </c>
       <c r="E36">
-        <v>0.004846225535880708</v>
+        <v>0.004808581468466802</v>
       </c>
     </row>
     <row r="37">
@@ -1365,7 +1365,7 @@
         <v>7</v>
       </c>
       <c r="E37">
-        <v>0.00130475302889096</v>
+        <v>0.001294618087664139</v>
       </c>
     </row>
     <row r="38">
@@ -1385,10 +1385,10 @@
         </is>
       </c>
       <c r="D38">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E38">
-        <v>0.01770736253494874</v>
+        <v>0.01646014425744406</v>
       </c>
     </row>
     <row r="39">
@@ -1408,10 +1408,10 @@
         </is>
       </c>
       <c r="D39">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E39">
-        <v>0.005964585274930103</v>
+        <v>0.006288144997225818</v>
       </c>
     </row>
     <row r="40">
@@ -1434,7 +1434,7 @@
         <v>54</v>
       </c>
       <c r="E40">
-        <v>0.01006523765144455</v>
+        <v>0.009987053819123359</v>
       </c>
     </row>
     <row r="41">
@@ -1454,10 +1454,10 @@
         </is>
       </c>
       <c r="D41">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E41">
-        <v>0.03448275862068965</v>
+        <v>0.03384501572036249</v>
       </c>
     </row>
     <row r="42">
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="D42">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E42">
-        <v>0.00260950605778192</v>
+        <v>0.001664508969853893</v>
       </c>
     </row>
     <row r="43">
@@ -1500,10 +1500,10 @@
         </is>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E43">
-        <v>0.0005591798695246971</v>
+        <v>0.0007397817643795081</v>
       </c>
     </row>
     <row r="44">
@@ -1526,7 +1526,7 @@
         <v>12</v>
       </c>
       <c r="E44">
-        <v>0.002236719478098788</v>
+        <v>0.002219345293138524</v>
       </c>
     </row>
     <row r="45">
@@ -1549,7 +1549,7 @@
         <v>91</v>
       </c>
       <c r="E45">
-        <v>0.01696178937558248</v>
+        <v>0.01683003513963381</v>
       </c>
     </row>
     <row r="46">
@@ -1569,10 +1569,10 @@
         </is>
       </c>
       <c r="D46">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E46">
-        <v>0.003355079217148183</v>
+        <v>0.00369890882189754</v>
       </c>
     </row>
     <row r="47">
@@ -1595,7 +1595,7 @@
         <v>96</v>
       </c>
       <c r="E47">
-        <v>0.01789375582479031</v>
+        <v>0.01775476234510819</v>
       </c>
     </row>
     <row r="48">
@@ -1618,7 +1618,7 @@
         <v>74</v>
       </c>
       <c r="E48">
-        <v>0.01379310344827586</v>
+        <v>0.0136859626410209</v>
       </c>
     </row>
     <row r="49">
@@ -1638,10 +1638,10 @@
         </is>
       </c>
       <c r="D49">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E49">
-        <v>0.01099720410065238</v>
+        <v>0.01072683558350287</v>
       </c>
     </row>
     <row r="50">
@@ -1661,10 +1661,10 @@
         </is>
       </c>
       <c r="D50">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E50">
-        <v>0.00521901211556384</v>
+        <v>0.004993526909561679</v>
       </c>
     </row>
     <row r="51">
@@ -1687,7 +1687,7 @@
         <v>46</v>
       </c>
       <c r="E51">
-        <v>0.008574091332712022</v>
+        <v>0.008507490290364343</v>
       </c>
     </row>
     <row r="52">
@@ -1707,10 +1707,10 @@
         </is>
       </c>
       <c r="D52">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="E52">
-        <v>0.08909599254426841</v>
+        <v>0.08951359348992047</v>
       </c>
     </row>
     <row r="53">
@@ -1730,10 +1730,10 @@
         </is>
       </c>
       <c r="D53">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E53">
-        <v>0.05945945945945946</v>
+        <v>0.05918254115036065</v>
       </c>
     </row>
     <row r="54">
@@ -1753,10 +1753,10 @@
         </is>
       </c>
       <c r="D54">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E54">
-        <v>0.06150978564771668</v>
+        <v>0.06121694100240429</v>
       </c>
     </row>
     <row r="55">
@@ -1776,10 +1776,10 @@
         </is>
       </c>
       <c r="D55">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E55">
-        <v>0.004846225535880708</v>
+        <v>0.004993526909561679</v>
       </c>
     </row>
     <row r="56">
@@ -1799,10 +1799,10 @@
         </is>
       </c>
       <c r="D56">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E56">
-        <v>0.00521901211556384</v>
+        <v>0.005548363232846311</v>
       </c>
     </row>
     <row r="57">
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="D57">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E57">
-        <v>0.03392357875116496</v>
+        <v>0.03439985204364712</v>
       </c>
     </row>
     <row r="58">
@@ -1848,7 +1848,7 @@
         <v>3</v>
       </c>
       <c r="E58">
-        <v>0.0005591798695246971</v>
+        <v>0.000554836323284631</v>
       </c>
     </row>
     <row r="59">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="D59">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E59">
-        <v>0.02423112767940354</v>
+        <v>0.02459774366561864</v>
       </c>
     </row>
     <row r="60">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="D60">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E60">
-        <v>0.006710158434296365</v>
+        <v>0.006473090438320696</v>
       </c>
     </row>
     <row r="61">
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="D61">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E61">
-        <v>0.01528424976700839</v>
+        <v>0.01535047161087479</v>
       </c>
     </row>
     <row r="62">
@@ -1937,10 +1937,10 @@
         </is>
       </c>
       <c r="D62">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E62">
-        <v>0.03336439888164026</v>
+        <v>0.03347512483817274</v>
       </c>
     </row>
     <row r="63">
@@ -1963,7 +1963,7 @@
         <v>91</v>
       </c>
       <c r="E63">
-        <v>0.01696178937558248</v>
+        <v>0.01683003513963381</v>
       </c>
     </row>
     <row r="64">
@@ -1986,7 +1986,7 @@
         <v>13</v>
       </c>
       <c r="E64">
-        <v>0.002423112767940354</v>
+        <v>0.002404290734233401</v>
       </c>
     </row>
     <row r="65">
@@ -2006,10 +2006,10 @@
         </is>
       </c>
       <c r="D65">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E65">
-        <v>0.01397949673811743</v>
+        <v>0.01479563528759016</v>
       </c>
     </row>
     <row r="66">
@@ -2029,10 +2029,10 @@
         </is>
       </c>
       <c r="D66">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E66">
-        <v>0.03634669151910531</v>
+        <v>0.0362493064545959</v>
       </c>
     </row>
     <row r="67">
@@ -2052,10 +2052,10 @@
         </is>
       </c>
       <c r="D67">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E67">
-        <v>0.01267474370922647</v>
+        <v>0.01276123543554651</v>
       </c>
     </row>
     <row r="68">
@@ -2078,7 +2078,7 @@
         <v>24</v>
       </c>
       <c r="E68">
-        <v>0.004473438956197577</v>
+        <v>0.004438690586277048</v>
       </c>
     </row>
     <row r="69">
@@ -2098,10 +2098,10 @@
         </is>
       </c>
       <c r="D69">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E69">
-        <v>0.03299161230195713</v>
+        <v>0.03329017939707786</v>
       </c>
     </row>
     <row r="70">
@@ -2124,7 +2124,7 @@
         <v>9</v>
       </c>
       <c r="E70">
-        <v>0.001677539608574091</v>
+        <v>0.001664508969853893</v>
       </c>
     </row>
     <row r="71">
@@ -2144,10 +2144,10 @@
         </is>
       </c>
       <c r="D71">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E71">
-        <v>0.03355079217148182</v>
+        <v>0.03384501572036249</v>
       </c>
     </row>
     <row r="72">
@@ -2170,7 +2170,7 @@
         <v>116</v>
       </c>
       <c r="E72">
-        <v>0.02162162162162162</v>
+        <v>0.02145367116700573</v>
       </c>
     </row>
     <row r="73">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="D73">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E73">
-        <v>0.03410997204100653</v>
+        <v>0.03439985204364712</v>
       </c>
     </row>
     <row r="74">
@@ -2213,10 +2213,10 @@
         </is>
       </c>
       <c r="D74">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E74">
-        <v>0.05200372786579683</v>
+        <v>0.05270945071203995</v>
       </c>
     </row>
     <row r="75">
@@ -2239,7 +2239,7 @@
         <v>30</v>
       </c>
       <c r="E75">
-        <v>0.005591798695246971</v>
+        <v>0.005548363232846311</v>
       </c>
     </row>
     <row r="76">
@@ -2259,10 +2259,10 @@
         </is>
       </c>
       <c r="D76">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E76">
-        <v>0.02124883504193849</v>
+        <v>0.02126872572591086</v>
       </c>
     </row>
     <row r="77">
@@ -2285,7 +2285,7 @@
         <v>49</v>
       </c>
       <c r="E77">
-        <v>0.009133271202236719</v>
+        <v>0.009062326613648974</v>
       </c>
     </row>
     <row r="78">
@@ -2308,7 +2308,7 @@
         <v>3</v>
       </c>
       <c r="E78">
-        <v>0.0005591798695246971</v>
+        <v>0.000554836323284631</v>
       </c>
     </row>
     <row r="79">
@@ -2328,10 +2328,10 @@
         </is>
       </c>
       <c r="D79">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E79">
-        <v>0.00391425908667288</v>
+        <v>0.004068799704087294</v>
       </c>
     </row>
     <row r="80">
@@ -2351,10 +2351,10 @@
         </is>
       </c>
       <c r="D80">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E80">
-        <v>0.005778191985088537</v>
+        <v>0.005918254115036064</v>
       </c>
     </row>
     <row r="81">
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="D81">
-        <v>5365</v>
+        <v>5407</v>
       </c>
     </row>
   </sheetData>
